--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/GEORGIA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/GEORGIA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1691"/>
+  <dimension ref="A1:D1685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C34">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C37">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C45">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C50">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C74">
@@ -1356,7 +1356,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C75">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C81">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C89">
@@ -1551,7 +1551,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C90">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C129">
@@ -2219,7 +2219,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C141">
@@ -2258,7 +2258,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C144">
@@ -2588,7 +2588,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C169">
@@ -2749,7 +2749,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C181">
@@ -2775,7 +2775,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2832,7 +2832,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C187">
@@ -3032,7 +3032,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C202">
@@ -3214,7 +3214,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C216">
@@ -3266,7 +3266,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C220">
@@ -3344,7 +3344,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C226">
@@ -3357,7 +3357,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C227">
@@ -3370,7 +3370,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C228">
@@ -3383,7 +3383,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C229">
@@ -3513,12 +3513,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C239">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C242">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C243">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C250">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C257">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C263">
@@ -3921,7 +3921,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C270">
@@ -3934,7 +3934,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C271">
@@ -4103,7 +4103,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C284">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C293">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C295">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C297">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C306">
@@ -4532,7 +4532,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C317">
@@ -4610,7 +4610,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C323">
@@ -4623,7 +4623,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C324">
@@ -4636,7 +4636,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C325">
@@ -4649,7 +4649,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C326">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C338">
@@ -4823,7 +4823,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C339">
@@ -4836,7 +4836,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C340">
@@ -4940,7 +4940,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C348">
@@ -4992,7 +4992,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C352">
@@ -5096,7 +5096,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C360">
@@ -5148,7 +5148,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C364">
@@ -5174,7 +5174,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C366">
@@ -5200,7 +5200,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C368">
@@ -5226,7 +5226,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C370">
@@ -5252,7 +5252,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C372">
@@ -5317,7 +5317,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C377">
@@ -5389,7 +5389,7 @@
         <v>3330</v>
       </c>
       <c r="D382">
-        <v>0.09636532006019215</v>
+        <v>0.09636532006019216</v>
       </c>
     </row>
     <row r="383">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C383">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C385">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C386">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C390">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C391">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C393">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C394">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C397">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C398">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C399">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C400">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C405">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C406">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C410">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C411">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C417">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C418">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C420">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C423">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C426">
@@ -6128,7 +6128,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C439">
@@ -6154,7 +6154,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C441">
@@ -6180,7 +6180,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C443">
@@ -6206,7 +6206,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C445">
@@ -6258,7 +6258,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C449">
@@ -6271,7 +6271,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C450">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C462">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C468">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C469">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C475">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C480">
@@ -6718,7 +6718,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C484">
@@ -6757,7 +6757,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C487">
@@ -6835,7 +6835,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C493">
@@ -6848,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C494">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C495">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C496">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C497">
@@ -6913,7 +6913,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C499">
@@ -6926,7 +6926,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C500">
@@ -6939,7 +6939,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C501">
@@ -6978,7 +6978,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C504">
@@ -7043,7 +7043,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C509">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C510">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C514">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C516">
@@ -7147,7 +7147,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C517">
@@ -7173,7 +7173,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C519">
@@ -7277,7 +7277,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C527">
@@ -7290,7 +7290,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C528">
@@ -7303,7 +7303,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C529">
@@ -7355,7 +7355,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C533">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C538">
@@ -7438,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C539">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C543">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C545">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C560">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C567">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C568">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C569">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C573">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C579">
@@ -7971,7 +7971,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C580">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C587">
@@ -8127,7 +8127,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C592">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C593">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C595">
@@ -8192,7 +8192,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C597">
@@ -8205,7 +8205,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C598">
@@ -8218,7 +8218,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C599">
@@ -8231,7 +8231,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C600">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C601">
@@ -8283,7 +8283,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C604">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C605">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C608">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C611">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C612">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C615">
@@ -8439,7 +8439,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C616">
@@ -8569,7 +8569,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C626">
@@ -8582,7 +8582,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C627">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C628">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C633">
@@ -8673,7 +8673,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C634">
@@ -8712,7 +8712,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C637">
@@ -8725,7 +8725,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C638">
@@ -8738,7 +8738,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C639">
@@ -9068,7 +9068,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C664">
@@ -9094,7 +9094,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C666">
@@ -9952,7 +9952,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C732">
@@ -10269,7 +10269,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C756">
@@ -10412,7 +10412,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C767">
@@ -10490,7 +10490,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C773">
@@ -10516,7 +10516,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C775">
@@ -10620,7 +10620,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C783">
@@ -10677,7 +10677,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C787">
@@ -10690,7 +10690,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C788">
@@ -10716,7 +10716,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C790">
@@ -10807,7 +10807,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C797">
@@ -11072,7 +11072,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C817">
@@ -11137,7 +11137,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C822">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C829">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C836">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C838">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C839">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C841">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C842">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C843">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C844">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C845">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C846">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C854">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C855">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C856">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C858">
@@ -11636,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C860">
@@ -11688,7 +11688,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C864">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C865">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C866">
@@ -11727,7 +11727,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C867">
@@ -11753,7 +11753,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C869">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C870">
@@ -11909,7 +11909,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C881">
@@ -12091,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C895">
@@ -12234,7 +12234,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C906">
@@ -12338,7 +12338,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C914">
@@ -12819,7 +12819,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C951">
@@ -12923,7 +12923,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C959">
@@ -12949,7 +12949,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C961">
@@ -13131,7 +13131,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C975">
@@ -13144,7 +13144,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C976">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C988">
@@ -13534,7 +13534,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1006">
@@ -13586,7 +13586,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1010">
@@ -13638,7 +13638,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1014">
@@ -13716,7 +13716,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1020">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1026">
@@ -14392,7 +14392,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1072">
@@ -14574,7 +14574,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1086">
@@ -14587,7 +14587,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1087">
@@ -14613,7 +14613,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1089">
@@ -14626,7 +14626,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1090">
@@ -14652,7 +14652,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1092">
@@ -14678,7 +14678,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1094">
@@ -14691,7 +14691,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1095">
@@ -14730,7 +14730,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1098">
@@ -14743,7 +14743,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1099">
@@ -14769,7 +14769,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1101">
@@ -14782,7 +14782,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1102">
@@ -14834,7 +14834,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1106">
@@ -15112,7 +15112,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1127">
@@ -15229,7 +15229,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1136">
@@ -15333,7 +15333,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1144">
@@ -15346,7 +15346,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1145">
@@ -15515,7 +15515,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1158">
@@ -15528,7 +15528,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1159">
@@ -15593,7 +15593,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1164">
@@ -15632,7 +15632,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1167">
@@ -15775,7 +15775,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1178">
@@ -15905,7 +15905,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1188">
@@ -16165,7 +16165,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1208">
@@ -16217,7 +16217,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1212">
@@ -16295,7 +16295,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1218">
@@ -16373,7 +16373,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1224">
@@ -16386,7 +16386,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1225">
@@ -16399,7 +16399,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1226">
@@ -16451,7 +16451,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1230">
@@ -16477,7 +16477,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1232">
@@ -16490,7 +16490,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1233">
@@ -16555,7 +16555,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1238">
@@ -16724,7 +16724,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1251">
@@ -16789,7 +16789,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1256">
@@ -16937,7 +16937,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1267">
@@ -16963,7 +16963,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1269">
@@ -17028,7 +17028,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1274">
@@ -17041,7 +17041,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1275">
@@ -17080,7 +17080,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1278">
@@ -17119,7 +17119,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1281">
@@ -17285,7 +17285,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1293">
@@ -17298,7 +17298,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1294">
@@ -17376,7 +17376,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1300">
@@ -17493,7 +17493,7 @@
     <row r="1309">
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1309">
@@ -17571,7 +17571,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1315">
@@ -17649,7 +17649,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1321">
@@ -17675,7 +17675,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1323">
@@ -17766,7 +17766,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1330">
@@ -17818,7 +17818,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1334">
@@ -17831,7 +17831,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1335">
@@ -17844,7 +17844,7 @@
     <row r="1336">
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1336">
@@ -17857,7 +17857,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1337">
@@ -17870,7 +17870,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1338">
@@ -17883,7 +17883,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1339">
@@ -18283,7 +18283,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1369">
@@ -18483,7 +18483,7 @@
     <row r="1384">
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1384">
@@ -18982,7 +18982,7 @@
     <row r="1422">
       <c r="B1422" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1422">
@@ -19169,7 +19169,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1436">
@@ -19182,7 +19182,7 @@
     <row r="1437">
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1437">
@@ -19221,7 +19221,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1440">
@@ -19234,7 +19234,7 @@
     <row r="1441">
       <c r="B1441" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1441">
@@ -19286,7 +19286,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1445">
@@ -19325,7 +19325,7 @@
     <row r="1448">
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1448">
@@ -19551,7 +19551,7 @@
     <row r="1465">
       <c r="B1465" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1465">
@@ -19603,7 +19603,7 @@
     <row r="1469">
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1469">
@@ -19733,7 +19733,7 @@
     <row r="1479">
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1479">
@@ -19759,7 +19759,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1481">
@@ -19811,7 +19811,7 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1485">
@@ -19837,7 +19837,7 @@
     <row r="1487">
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1487">
@@ -20058,7 +20058,7 @@
     <row r="1504">
       <c r="B1504" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1504">
@@ -20071,7 +20071,7 @@
     <row r="1505">
       <c r="B1505" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1505">
@@ -20279,7 +20279,7 @@
     <row r="1521">
       <c r="B1521" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1521">
@@ -20292,7 +20292,7 @@
     <row r="1522">
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1522">
@@ -20344,7 +20344,7 @@
     <row r="1526">
       <c r="B1526" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1526">
@@ -20357,7 +20357,7 @@
     <row r="1527">
       <c r="B1527" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1527">
@@ -20370,7 +20370,7 @@
     <row r="1528">
       <c r="B1528" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1528">
@@ -20500,7 +20500,7 @@
     <row r="1538">
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1538">
@@ -20552,7 +20552,7 @@
     <row r="1542">
       <c r="B1542" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1542">
@@ -20591,7 +20591,7 @@
     <row r="1545">
       <c r="B1545" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1545">
@@ -20630,7 +20630,7 @@
     <row r="1548">
       <c r="B1548" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1548">
@@ -20682,7 +20682,7 @@
     <row r="1552">
       <c r="B1552" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1552">
@@ -20708,7 +20708,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1554">
@@ -20799,7 +20799,7 @@
     <row r="1561">
       <c r="B1561" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1561">
@@ -20851,7 +20851,7 @@
     <row r="1565">
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1565">
@@ -20864,7 +20864,7 @@
     <row r="1566">
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1566">
@@ -20916,7 +20916,7 @@
     <row r="1570">
       <c r="B1570" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1570">
@@ -21020,7 +21020,7 @@
     <row r="1578">
       <c r="B1578" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1578">
@@ -21059,7 +21059,7 @@
     <row r="1581">
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1581">
@@ -21527,7 +21527,7 @@
     <row r="1617">
       <c r="B1617" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1617">
@@ -21670,7 +21670,7 @@
     <row r="1628">
       <c r="B1628" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1628">
@@ -21823,7 +21823,7 @@
     <row r="1639">
       <c r="B1639" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1639">
@@ -21849,7 +21849,7 @@
     <row r="1641">
       <c r="B1641" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1641">
@@ -21992,7 +21992,7 @@
     <row r="1652">
       <c r="B1652" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1652">
@@ -22070,7 +22070,7 @@
     <row r="1658">
       <c r="B1658" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1658">
@@ -22122,7 +22122,7 @@
     <row r="1662">
       <c r="B1662" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1662">
@@ -22135,7 +22135,7 @@
     <row r="1663">
       <c r="B1663" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1663">
@@ -22148,7 +22148,7 @@
     <row r="1664">
       <c r="B1664" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1664">
@@ -22278,7 +22278,7 @@
     <row r="1674">
       <c r="B1674" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1674">
@@ -22291,7 +22291,7 @@
     <row r="1675">
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1675">
@@ -22330,7 +22330,7 @@
     <row r="1678">
       <c r="B1678" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1678">
@@ -22429,41 +22429,6 @@
       </c>
       <c r="D1685">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
